--- a/data/pca/factorExposure/factorExposure_2016-03-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01180642744986153</v>
+        <v>-0.01594305203161755</v>
       </c>
       <c r="C2">
-        <v>-0.05447005551457638</v>
+        <v>0.03973387043856064</v>
       </c>
       <c r="D2">
-        <v>-0.04167142347742595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06804242070804183</v>
+      </c>
+      <c r="E2">
+        <v>0.1032818429482404</v>
+      </c>
+      <c r="F2">
+        <v>0.07748181845626621</v>
+      </c>
+      <c r="G2">
+        <v>0.02623135063357743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04319520123505913</v>
+        <v>-0.02676745266301811</v>
       </c>
       <c r="C3">
-        <v>-0.120737491040102</v>
+        <v>0.06593732438670599</v>
       </c>
       <c r="D3">
-        <v>-0.08592178147310828</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07809726851428522</v>
+      </c>
+      <c r="E3">
+        <v>0.06604102916428499</v>
+      </c>
+      <c r="F3">
+        <v>-0.03029885127873666</v>
+      </c>
+      <c r="G3">
+        <v>0.03542968606475026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06282465282172127</v>
+        <v>-0.0607700909058316</v>
       </c>
       <c r="C4">
-        <v>-0.0665217620285366</v>
+        <v>0.06501555861760108</v>
       </c>
       <c r="D4">
-        <v>-0.03287705634304895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06475176265266634</v>
+      </c>
+      <c r="E4">
+        <v>0.09939119261035732</v>
+      </c>
+      <c r="F4">
+        <v>0.03208139110550358</v>
+      </c>
+      <c r="G4">
+        <v>0.07601845336226681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03966628134351362</v>
+        <v>-0.03710757949497166</v>
       </c>
       <c r="C6">
-        <v>-0.03829275993682824</v>
+        <v>0.02815713349454666</v>
       </c>
       <c r="D6">
-        <v>-0.03133711989864654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06815746227480413</v>
+      </c>
+      <c r="E6">
+        <v>0.09189894813120973</v>
+      </c>
+      <c r="F6">
+        <v>0.02277949980955606</v>
+      </c>
+      <c r="G6">
+        <v>0.05676084332183365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02669999394740008</v>
+        <v>-0.02126443485340736</v>
       </c>
       <c r="C7">
-        <v>-0.041104879661783</v>
+        <v>0.03655471070675052</v>
       </c>
       <c r="D7">
-        <v>0.00220491416770403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0449089674481444</v>
+      </c>
+      <c r="E7">
+        <v>0.0769424079421462</v>
+      </c>
+      <c r="F7">
+        <v>0.06022358262263264</v>
+      </c>
+      <c r="G7">
+        <v>0.09789859591350897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007894657402259938</v>
+        <v>-0.007528525364756952</v>
       </c>
       <c r="C8">
-        <v>-0.03926825356846358</v>
+        <v>0.0339828580099514</v>
       </c>
       <c r="D8">
-        <v>-0.02870517663346138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04199544273794478</v>
+      </c>
+      <c r="E8">
+        <v>0.06218607283329362</v>
+      </c>
+      <c r="F8">
+        <v>0.01314171346778518</v>
+      </c>
+      <c r="G8">
+        <v>0.03417763709976671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03955663916489723</v>
+        <v>-0.04136515057681712</v>
       </c>
       <c r="C9">
-        <v>-0.04733760053209368</v>
+        <v>0.05100886744737415</v>
       </c>
       <c r="D9">
-        <v>-0.01615157669846379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04604864478365368</v>
+      </c>
+      <c r="E9">
+        <v>0.07720127929565969</v>
+      </c>
+      <c r="F9">
+        <v>0.04902237351526967</v>
+      </c>
+      <c r="G9">
+        <v>0.07651613957764754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0720083831027743</v>
+        <v>-0.09993435135385212</v>
       </c>
       <c r="C10">
-        <v>0.1936010276951442</v>
+        <v>-0.2020358099118098</v>
       </c>
       <c r="D10">
-        <v>0.003029127275528048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009808230376198086</v>
+      </c>
+      <c r="E10">
+        <v>0.03587639725035552</v>
+      </c>
+      <c r="F10">
+        <v>0.01765384602964961</v>
+      </c>
+      <c r="G10">
+        <v>0.03923314526692048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04332063942854639</v>
+        <v>-0.03776829130327832</v>
       </c>
       <c r="C11">
-        <v>-0.05189246724491071</v>
+        <v>0.04782984069482649</v>
       </c>
       <c r="D11">
-        <v>-0.01575321645652695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03358820114022879</v>
+      </c>
+      <c r="E11">
+        <v>0.03310156657969825</v>
+      </c>
+      <c r="F11">
+        <v>0.03388036354184129</v>
+      </c>
+      <c r="G11">
+        <v>0.06855474376385541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04639484293586547</v>
+        <v>-0.0400463577471717</v>
       </c>
       <c r="C12">
-        <v>-0.0463472057339807</v>
+        <v>0.04583136016147699</v>
       </c>
       <c r="D12">
-        <v>-0.00220938601122609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02875432681213028</v>
+      </c>
+      <c r="E12">
+        <v>0.04077666393631109</v>
+      </c>
+      <c r="F12">
+        <v>0.0353416805210152</v>
+      </c>
+      <c r="G12">
+        <v>0.06468312239102653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01635550555507674</v>
+        <v>-0.01455311145759986</v>
       </c>
       <c r="C13">
-        <v>-0.05415827795311891</v>
+        <v>0.04215693514306572</v>
       </c>
       <c r="D13">
-        <v>-0.01069486542904177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05458165108296852</v>
+      </c>
+      <c r="E13">
+        <v>0.110721180964731</v>
+      </c>
+      <c r="F13">
+        <v>0.05174313803579988</v>
+      </c>
+      <c r="G13">
+        <v>0.08970391891403749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01041374474187265</v>
+        <v>-0.007421299376848213</v>
       </c>
       <c r="C14">
-        <v>-0.03669126607425141</v>
+        <v>0.03061029160852133</v>
       </c>
       <c r="D14">
-        <v>0.0005392368441918903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.030673249851101</v>
+      </c>
+      <c r="E14">
+        <v>0.06423651588484572</v>
+      </c>
+      <c r="F14">
+        <v>0.06824315644276865</v>
+      </c>
+      <c r="G14">
+        <v>0.07687029366900636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001086619050114657</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006262473622085485</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.009299136234851752</v>
+      </c>
+      <c r="E15">
+        <v>0.006727428768200456</v>
+      </c>
+      <c r="F15">
+        <v>0.005374944355693603</v>
+      </c>
+      <c r="G15">
+        <v>0.00699455196086139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04117025326040412</v>
+        <v>-0.03595791625422356</v>
       </c>
       <c r="C16">
-        <v>-0.04858215021185083</v>
+        <v>0.04473094842230838</v>
       </c>
       <c r="D16">
-        <v>-0.004927540732301557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02845863456780416</v>
+      </c>
+      <c r="E16">
+        <v>0.04796823599161821</v>
+      </c>
+      <c r="F16">
+        <v>0.04577971335879848</v>
+      </c>
+      <c r="G16">
+        <v>0.05466799732536557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02669637797777419</v>
+        <v>-0.0188428059795192</v>
       </c>
       <c r="C19">
-        <v>-0.06073644072699241</v>
+        <v>0.04494279902520616</v>
       </c>
       <c r="D19">
-        <v>-0.08939920171763724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09666816711634071</v>
+      </c>
+      <c r="E19">
+        <v>0.1131292651828283</v>
+      </c>
+      <c r="F19">
+        <v>0.05432195202730704</v>
+      </c>
+      <c r="G19">
+        <v>0.03391345580169522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0200465940710995</v>
+        <v>-0.01616470264717512</v>
       </c>
       <c r="C20">
-        <v>-0.04961193166100261</v>
+        <v>0.04033388979213525</v>
       </c>
       <c r="D20">
-        <v>-0.01043542611177865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04066475100877158</v>
+      </c>
+      <c r="E20">
+        <v>0.08710667807668052</v>
+      </c>
+      <c r="F20">
+        <v>0.04838264284130565</v>
+      </c>
+      <c r="G20">
+        <v>0.06116694979616501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01369909370427872</v>
+        <v>-0.01286818236587638</v>
       </c>
       <c r="C21">
-        <v>-0.05663950253602761</v>
+        <v>0.04449107394171031</v>
       </c>
       <c r="D21">
-        <v>-0.03365358582196065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06634174296586372</v>
+      </c>
+      <c r="E21">
+        <v>0.1364173633477464</v>
+      </c>
+      <c r="F21">
+        <v>0.07736896197025472</v>
+      </c>
+      <c r="G21">
+        <v>0.08847636593869064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.002421641180129092</v>
+        <v>-0.004510151458781678</v>
       </c>
       <c r="C22">
-        <v>-0.001246908904126715</v>
+        <v>0.02919391895771992</v>
       </c>
       <c r="D22">
-        <v>-0.008512526113492751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.05741844697140593</v>
+      </c>
+      <c r="E22">
+        <v>0.0619742748515368</v>
+      </c>
+      <c r="F22">
+        <v>-0.02565425881154464</v>
+      </c>
+      <c r="G22">
+        <v>0.05509362035805909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.002429602049362759</v>
+        <v>-0.004604361377194241</v>
       </c>
       <c r="C23">
-        <v>-0.001245642502828454</v>
+        <v>0.02922448467046569</v>
       </c>
       <c r="D23">
-        <v>-0.008484537792632751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.05667115633052235</v>
+      </c>
+      <c r="E23">
+        <v>0.0621887438112154</v>
+      </c>
+      <c r="F23">
+        <v>-0.02585131235031901</v>
+      </c>
+      <c r="G23">
+        <v>0.0551526316694041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03836958517663578</v>
+        <v>-0.03702370852370802</v>
       </c>
       <c r="C24">
-        <v>-0.05057644097995015</v>
+        <v>0.05266653772752188</v>
       </c>
       <c r="D24">
-        <v>-0.009670606775591888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02925825157040784</v>
+      </c>
+      <c r="E24">
+        <v>0.05140574332870839</v>
+      </c>
+      <c r="F24">
+        <v>0.04673887362577308</v>
+      </c>
+      <c r="G24">
+        <v>0.06516755970685005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04964241827907777</v>
+        <v>-0.04443514219356529</v>
       </c>
       <c r="C25">
-        <v>-0.05952771506153362</v>
+        <v>0.05548497319147098</v>
       </c>
       <c r="D25">
-        <v>0.001313191851132049</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02641419424043967</v>
+      </c>
+      <c r="E25">
+        <v>0.04198436442391271</v>
+      </c>
+      <c r="F25">
+        <v>0.03736054946631708</v>
+      </c>
+      <c r="G25">
+        <v>0.07872485900409376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01891057099634656</v>
+        <v>-0.01757189882333227</v>
       </c>
       <c r="C26">
-        <v>-0.01751184890001992</v>
+        <v>0.01666934366121923</v>
       </c>
       <c r="D26">
-        <v>-0.008440568920602021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02945223830192519</v>
+      </c>
+      <c r="E26">
+        <v>0.05799908805824994</v>
+      </c>
+      <c r="F26">
+        <v>0.050757507933474</v>
+      </c>
+      <c r="G26">
+        <v>0.04489131680064933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08866622452233479</v>
+        <v>-0.1365298175654952</v>
       </c>
       <c r="C28">
-        <v>0.2542845014173634</v>
+        <v>-0.2588532487496067</v>
       </c>
       <c r="D28">
-        <v>0.006809043727903992</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0264283404141668</v>
+      </c>
+      <c r="E28">
+        <v>0.05633825085227764</v>
+      </c>
+      <c r="F28">
+        <v>0.02867309101393142</v>
+      </c>
+      <c r="G28">
+        <v>0.0532863657980361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00869744149574727</v>
+        <v>-0.008011064637366384</v>
       </c>
       <c r="C29">
-        <v>-0.03223492106033187</v>
+        <v>0.02857593876038663</v>
       </c>
       <c r="D29">
-        <v>0.006698551085602718</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0231339532891904</v>
+      </c>
+      <c r="E29">
+        <v>0.06383372596296658</v>
+      </c>
+      <c r="F29">
+        <v>0.05857272496320241</v>
+      </c>
+      <c r="G29">
+        <v>0.08135632775090947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04682448756523116</v>
+        <v>-0.04479950774026101</v>
       </c>
       <c r="C30">
-        <v>-0.04827539650309415</v>
+        <v>0.0563509007162115</v>
       </c>
       <c r="D30">
-        <v>-0.08130695134394496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1084875653847473</v>
+      </c>
+      <c r="E30">
+        <v>0.08536550253515618</v>
+      </c>
+      <c r="F30">
+        <v>0.05512825698443143</v>
+      </c>
+      <c r="G30">
+        <v>0.05719943701715917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06228218295258881</v>
+        <v>-0.05990806278982034</v>
       </c>
       <c r="C31">
-        <v>-0.04650055196762765</v>
+        <v>0.06163228270569568</v>
       </c>
       <c r="D31">
-        <v>0.04200088167938416</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01184000543669606</v>
+      </c>
+      <c r="E31">
+        <v>0.07698918665056985</v>
+      </c>
+      <c r="F31">
+        <v>0.0157982355735749</v>
+      </c>
+      <c r="G31">
+        <v>0.07390105973105596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003661689108244532</v>
+        <v>-0.009091408767427214</v>
       </c>
       <c r="C32">
-        <v>-0.04069435503455875</v>
+        <v>0.03442120535200029</v>
       </c>
       <c r="D32">
-        <v>-0.0614581760146547</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06023230885809942</v>
+      </c>
+      <c r="E32">
+        <v>0.06560138036001839</v>
+      </c>
+      <c r="F32">
+        <v>0.05774576411466288</v>
+      </c>
+      <c r="G32">
+        <v>0.06019159328369374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03494448270164887</v>
+        <v>-0.0286959221943857</v>
       </c>
       <c r="C33">
-        <v>-0.05822174016806319</v>
+        <v>0.05241544697264287</v>
       </c>
       <c r="D33">
-        <v>-0.04108145327620681</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07589926445770588</v>
+      </c>
+      <c r="E33">
+        <v>0.09365369507512175</v>
+      </c>
+      <c r="F33">
+        <v>0.05666219640854672</v>
+      </c>
+      <c r="G33">
+        <v>0.09832904355900619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04583876957760631</v>
+        <v>-0.04160126507353167</v>
       </c>
       <c r="C34">
-        <v>-0.06548029959978449</v>
+        <v>0.06306403591315765</v>
       </c>
       <c r="D34">
-        <v>-0.02458811717717405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03954794846275623</v>
+      </c>
+      <c r="E34">
+        <v>0.02347377665701999</v>
+      </c>
+      <c r="F34">
+        <v>0.04888100305423989</v>
+      </c>
+      <c r="G34">
+        <v>0.07262103834861475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01827004026754997</v>
+        <v>-0.01578204675340008</v>
       </c>
       <c r="C36">
-        <v>-0.01654284202207605</v>
+        <v>0.01372381916990283</v>
       </c>
       <c r="D36">
-        <v>-8.417407418863413e-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02874752452734632</v>
+      </c>
+      <c r="E36">
+        <v>0.06726512027981442</v>
+      </c>
+      <c r="F36">
+        <v>0.04337672635295794</v>
+      </c>
+      <c r="G36">
+        <v>0.06251377985338606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02997863821594429</v>
+        <v>-0.02362752188462599</v>
       </c>
       <c r="C38">
-        <v>-0.0315340545726966</v>
+        <v>0.02442523770261231</v>
       </c>
       <c r="D38">
-        <v>0.01416214175299906</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02207638365834203</v>
+      </c>
+      <c r="E38">
+        <v>0.05519588430487557</v>
+      </c>
+      <c r="F38">
+        <v>0.0341380227212468</v>
+      </c>
+      <c r="G38">
+        <v>0.04292427122701391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04865764429945883</v>
+        <v>-0.0425043484390485</v>
       </c>
       <c r="C39">
-        <v>-0.06076906047969375</v>
+        <v>0.06230658386529232</v>
       </c>
       <c r="D39">
-        <v>-0.02263129926368644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05483550111737039</v>
+      </c>
+      <c r="E39">
+        <v>0.05721717200798188</v>
+      </c>
+      <c r="F39">
+        <v>0.06739397793787381</v>
+      </c>
+      <c r="G39">
+        <v>0.06135858771609597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01267083601578795</v>
+        <v>-0.01543720213146237</v>
       </c>
       <c r="C40">
-        <v>-0.05556003621722653</v>
+        <v>0.03827458944667561</v>
       </c>
       <c r="D40">
-        <v>-0.01135022300163482</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03519764654032997</v>
+      </c>
+      <c r="E40">
+        <v>0.09800473937712795</v>
+      </c>
+      <c r="F40">
+        <v>0.0323694575537701</v>
+      </c>
+      <c r="G40">
+        <v>0.09649493366994602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02449360515662541</v>
+        <v>-0.02056623063206222</v>
       </c>
       <c r="C41">
-        <v>-0.01276996753907831</v>
+        <v>0.009820407153259806</v>
       </c>
       <c r="D41">
-        <v>-0.00205832675656768</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02024390446161424</v>
+      </c>
+      <c r="E41">
+        <v>0.06834785928838052</v>
+      </c>
+      <c r="F41">
+        <v>0.03709147465956798</v>
+      </c>
+      <c r="G41">
+        <v>0.04903644490547843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0456587329063796</v>
+        <v>-0.03239013922486666</v>
       </c>
       <c r="C43">
-        <v>-0.0341464462084834</v>
+        <v>0.02506822596397121</v>
       </c>
       <c r="D43">
-        <v>-0.02284773191260461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04927271494526624</v>
+      </c>
+      <c r="E43">
+        <v>0.08416063015296173</v>
+      </c>
+      <c r="F43">
+        <v>0.02859535098870581</v>
+      </c>
+      <c r="G43">
+        <v>0.0710729772853778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01758301734731432</v>
+        <v>-0.01875820067355919</v>
       </c>
       <c r="C44">
-        <v>-0.07093115683573017</v>
+        <v>0.04816246839671547</v>
       </c>
       <c r="D44">
-        <v>-0.00381155294924956</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03729053881665242</v>
+      </c>
+      <c r="E44">
+        <v>0.09305865328034695</v>
+      </c>
+      <c r="F44">
+        <v>0.05624489747705518</v>
+      </c>
+      <c r="G44">
+        <v>0.05004390328087904</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01292069265693706</v>
+        <v>-0.01307423220268063</v>
       </c>
       <c r="C46">
-        <v>-0.02752295320824165</v>
+        <v>0.02935859203717147</v>
       </c>
       <c r="D46">
-        <v>0.007941865354368857</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02105698293420577</v>
+      </c>
+      <c r="E46">
+        <v>0.07697163071416344</v>
+      </c>
+      <c r="F46">
+        <v>0.0668015848096233</v>
+      </c>
+      <c r="G46">
+        <v>0.07633758021703478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09199303436844566</v>
+        <v>-0.09364475952268046</v>
       </c>
       <c r="C47">
-        <v>-0.06705140621216858</v>
+        <v>0.07860209205615275</v>
       </c>
       <c r="D47">
-        <v>0.04564604390655414</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02021728592292187</v>
+      </c>
+      <c r="E47">
+        <v>0.0680840627401841</v>
+      </c>
+      <c r="F47">
+        <v>0.01952467827912167</v>
+      </c>
+      <c r="G47">
+        <v>0.07597711910656776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02056199157336801</v>
+        <v>-0.01897533833638881</v>
       </c>
       <c r="C48">
-        <v>-0.0137474680860199</v>
+        <v>0.01627719281832626</v>
       </c>
       <c r="D48">
-        <v>0.0152066020858947</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01640113571918573</v>
+      </c>
+      <c r="E48">
+        <v>0.08166540440415214</v>
+      </c>
+      <c r="F48">
+        <v>0.05786008441718859</v>
+      </c>
+      <c r="G48">
+        <v>0.06797753285745786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08558397237341921</v>
+        <v>-0.07282903358210989</v>
       </c>
       <c r="C50">
-        <v>-0.08177921904023087</v>
+        <v>0.07439294054483203</v>
       </c>
       <c r="D50">
-        <v>0.04209226225742384</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002695797570856659</v>
+      </c>
+      <c r="E50">
+        <v>0.08258315499292708</v>
+      </c>
+      <c r="F50">
+        <v>-0.01165541579185191</v>
+      </c>
+      <c r="G50">
+        <v>0.08325056315601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01697210444530073</v>
+        <v>-0.01234457436088286</v>
       </c>
       <c r="C51">
-        <v>-0.04937223402289743</v>
+        <v>0.03083285733851096</v>
       </c>
       <c r="D51">
-        <v>-0.04747009623963194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.06082847148499954</v>
+      </c>
+      <c r="E51">
+        <v>0.0591683007746813</v>
+      </c>
+      <c r="F51">
+        <v>0.06285088607077587</v>
+      </c>
+      <c r="G51">
+        <v>0.05994583633247138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08474168262055674</v>
+        <v>-0.09801767691368407</v>
       </c>
       <c r="C53">
-        <v>-0.07634197998397654</v>
+        <v>0.08446184704280812</v>
       </c>
       <c r="D53">
-        <v>0.06731266447058758</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05985012961993261</v>
+      </c>
+      <c r="E53">
+        <v>0.07181455482194157</v>
+      </c>
+      <c r="F53">
+        <v>0.02326998795921742</v>
+      </c>
+      <c r="G53">
+        <v>0.0728309810845362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03736868532555841</v>
+        <v>-0.03095333062879312</v>
       </c>
       <c r="C54">
-        <v>-0.03457648203825568</v>
+        <v>0.0315667587494266</v>
       </c>
       <c r="D54">
-        <v>-0.001201448627401684</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03055552917878094</v>
+      </c>
+      <c r="E54">
+        <v>0.06808881646008988</v>
+      </c>
+      <c r="F54">
+        <v>0.06301975007330007</v>
+      </c>
+      <c r="G54">
+        <v>0.0828708651256863</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08059761482213375</v>
+        <v>-0.09074603139342088</v>
       </c>
       <c r="C55">
-        <v>-0.05125418484986857</v>
+        <v>0.06571066720277985</v>
       </c>
       <c r="D55">
-        <v>0.07163808806580957</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05990925734022048</v>
+      </c>
+      <c r="E55">
+        <v>0.04696162849238389</v>
+      </c>
+      <c r="F55">
+        <v>0.001281697087336102</v>
+      </c>
+      <c r="G55">
+        <v>0.05395075104648442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1538700560877546</v>
+        <v>-0.1556298441858199</v>
       </c>
       <c r="C56">
-        <v>-0.07916533406631168</v>
+        <v>0.09871901843934848</v>
       </c>
       <c r="D56">
-        <v>0.06140385722113879</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05237251961910099</v>
+      </c>
+      <c r="E56">
+        <v>0.0383352904235615</v>
+      </c>
+      <c r="F56">
+        <v>-0.01171197188169773</v>
+      </c>
+      <c r="G56">
+        <v>0.02133436460357611</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04827009018495638</v>
+        <v>-0.03166169316825779</v>
       </c>
       <c r="C58">
-        <v>-0.01664106890171406</v>
+        <v>0.02198773080472898</v>
       </c>
       <c r="D58">
-        <v>-0.4804130721662455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3931062711206599</v>
+      </c>
+      <c r="E58">
+        <v>0.5441941806270427</v>
+      </c>
+      <c r="F58">
+        <v>-0.4137933345424092</v>
+      </c>
+      <c r="G58">
+        <v>-0.5241686659848335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1227954606980503</v>
+        <v>-0.1394145226486358</v>
       </c>
       <c r="C59">
-        <v>0.2050751734892171</v>
+        <v>-0.1922720967130842</v>
       </c>
       <c r="D59">
-        <v>-0.02485737312289474</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03001008200982471</v>
+      </c>
+      <c r="E59">
+        <v>0.02976495758717194</v>
+      </c>
+      <c r="F59">
+        <v>0.03174365732969336</v>
+      </c>
+      <c r="G59">
+        <v>-0.007053192972703555</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2997081420775378</v>
+        <v>-0.27127845542639</v>
       </c>
       <c r="C60">
-        <v>-0.11101275742639</v>
+        <v>0.1048040951595435</v>
       </c>
       <c r="D60">
-        <v>-0.2031091716640057</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2389213129925168</v>
+      </c>
+      <c r="E60">
+        <v>-0.2537465440550417</v>
+      </c>
+      <c r="F60">
+        <v>-0.07672089693773632</v>
+      </c>
+      <c r="G60">
+        <v>0.06028709804973914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04697860804546475</v>
+        <v>-0.04389614046800119</v>
       </c>
       <c r="C61">
-        <v>-0.05919833942770288</v>
+        <v>0.05755870068004169</v>
       </c>
       <c r="D61">
-        <v>-0.0194101783646038</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04615149755476126</v>
+      </c>
+      <c r="E61">
+        <v>0.05758741053986413</v>
+      </c>
+      <c r="F61">
+        <v>0.04979992125425545</v>
+      </c>
+      <c r="G61">
+        <v>0.07399362917985756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01786856109692263</v>
+        <v>-0.01765273620960824</v>
       </c>
       <c r="C63">
-        <v>-0.03422588297532621</v>
+        <v>0.03117703257134522</v>
       </c>
       <c r="D63">
-        <v>0.01629331462856181</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01937554685280294</v>
+      </c>
+      <c r="E63">
+        <v>0.0689467377529777</v>
+      </c>
+      <c r="F63">
+        <v>0.03359082390387502</v>
+      </c>
+      <c r="G63">
+        <v>0.07279456960617592</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05327096925514222</v>
+        <v>-0.05821902768390047</v>
       </c>
       <c r="C64">
-        <v>-0.05018665045335298</v>
+        <v>0.05877930190842726</v>
       </c>
       <c r="D64">
-        <v>-0.0114718840812434</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01348367255915693</v>
+      </c>
+      <c r="E64">
+        <v>0.0480160748724232</v>
+      </c>
+      <c r="F64">
+        <v>0.04825684294575415</v>
+      </c>
+      <c r="G64">
+        <v>0.05375914401957908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07942910541098129</v>
+        <v>-0.06504224099120717</v>
       </c>
       <c r="C65">
-        <v>-0.02396103922517254</v>
+        <v>0.02578707974721919</v>
       </c>
       <c r="D65">
-        <v>-0.0585856834724225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08984328604602183</v>
+      </c>
+      <c r="E65">
+        <v>0.05164139158744548</v>
+      </c>
+      <c r="F65">
+        <v>-0.002095619149206424</v>
+      </c>
+      <c r="G65">
+        <v>0.01702797473220256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06182123538380548</v>
+        <v>-0.05397830447593537</v>
       </c>
       <c r="C66">
-        <v>-0.08119515376996286</v>
+        <v>0.07833098216501246</v>
       </c>
       <c r="D66">
-        <v>-0.0416560562866243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07847866405729576</v>
+      </c>
+      <c r="E66">
+        <v>0.07151860628312845</v>
+      </c>
+      <c r="F66">
+        <v>0.05695743291158695</v>
+      </c>
+      <c r="G66">
+        <v>0.07293476849596141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05045506915279637</v>
+        <v>-0.04392712108263933</v>
       </c>
       <c r="C67">
-        <v>-0.03098719475444536</v>
+        <v>0.02855547625505081</v>
       </c>
       <c r="D67">
-        <v>0.02341086452597221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003883893845311136</v>
+      </c>
+      <c r="E67">
+        <v>0.03189303776278939</v>
+      </c>
+      <c r="F67">
+        <v>0.02293579310907247</v>
+      </c>
+      <c r="G67">
+        <v>0.03557141375924667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.12305547070561</v>
+        <v>-0.1476707925977766</v>
       </c>
       <c r="C68">
-        <v>0.2801671468033109</v>
+        <v>-0.2437024978949174</v>
       </c>
       <c r="D68">
-        <v>0.007796533868307327</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01254311380681529</v>
+      </c>
+      <c r="E68">
+        <v>0.04217237480471256</v>
+      </c>
+      <c r="F68">
+        <v>0.006135794461038971</v>
+      </c>
+      <c r="G68">
+        <v>0.02420947909011468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09407214104617558</v>
+        <v>-0.08932468491450472</v>
       </c>
       <c r="C69">
-        <v>-0.07042573544688845</v>
+        <v>0.08976748030976009</v>
       </c>
       <c r="D69">
-        <v>0.04668394401463593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009181619739248449</v>
+      </c>
+      <c r="E69">
+        <v>0.06227096221561082</v>
+      </c>
+      <c r="F69">
+        <v>0.05010675811073752</v>
+      </c>
+      <c r="G69">
+        <v>0.0725591549479923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1150310938280914</v>
+        <v>-0.1426855456165212</v>
       </c>
       <c r="C71">
-        <v>0.2603982594456281</v>
+        <v>-0.2440625699354607</v>
       </c>
       <c r="D71">
-        <v>-0.009261183637891916</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.007525539797212535</v>
+      </c>
+      <c r="E71">
+        <v>0.0635090402195878</v>
+      </c>
+      <c r="F71">
+        <v>0.004430078549258851</v>
+      </c>
+      <c r="G71">
+        <v>0.055888792152597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0990899233170511</v>
+        <v>-0.1050052088572807</v>
       </c>
       <c r="C72">
-        <v>-0.04030628102894021</v>
+        <v>0.0474059836333187</v>
       </c>
       <c r="D72">
-        <v>-0.001834813500802463</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03693929811569428</v>
+      </c>
+      <c r="E72">
+        <v>0.02034510853644722</v>
+      </c>
+      <c r="F72">
+        <v>0.02356037731170844</v>
+      </c>
+      <c r="G72">
+        <v>0.1008830163557541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3847480511050157</v>
+        <v>-0.3266271800815591</v>
       </c>
       <c r="C73">
-        <v>-0.03895527632963082</v>
+        <v>0.06384830210085014</v>
       </c>
       <c r="D73">
-        <v>-0.502803562936777</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4902530777321185</v>
+      </c>
+      <c r="E73">
+        <v>-0.4847516269426168</v>
+      </c>
+      <c r="F73">
+        <v>-0.2367853316734871</v>
+      </c>
+      <c r="G73">
+        <v>0.02087614427614632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1067241975637055</v>
+        <v>-0.1113858294946352</v>
       </c>
       <c r="C74">
-        <v>-0.09307939956815994</v>
+        <v>0.09216616502257682</v>
       </c>
       <c r="D74">
-        <v>0.04964324895846538</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04601642130698944</v>
+      </c>
+      <c r="E74">
+        <v>0.05619676217972432</v>
+      </c>
+      <c r="F74">
+        <v>-0.009345926045047989</v>
+      </c>
+      <c r="G74">
+        <v>0.05131470280667092</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2565886617699627</v>
+        <v>-0.2591311766223305</v>
       </c>
       <c r="C75">
-        <v>-0.08511503027688215</v>
+        <v>0.1201858778858788</v>
       </c>
       <c r="D75">
-        <v>0.151177548679096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1535867709958229</v>
+      </c>
+      <c r="E75">
+        <v>0.02253830597533657</v>
+      </c>
+      <c r="F75">
+        <v>-0.04495772243410071</v>
+      </c>
+      <c r="G75">
+        <v>-0.04185689533969143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1167835829608574</v>
+        <v>-0.129576418854743</v>
       </c>
       <c r="C76">
-        <v>-0.07801232634667893</v>
+        <v>0.08950547917868107</v>
       </c>
       <c r="D76">
-        <v>0.07930758711012735</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07648622598326187</v>
+      </c>
+      <c r="E76">
+        <v>0.07897688764091353</v>
+      </c>
+      <c r="F76">
+        <v>0.01418414139966258</v>
+      </c>
+      <c r="G76">
+        <v>0.03438320715906685</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08538169336301442</v>
+        <v>-0.06940158448461299</v>
       </c>
       <c r="C77">
-        <v>-0.04038417963816089</v>
+        <v>0.05636489136739502</v>
       </c>
       <c r="D77">
-        <v>-0.06142054594295378</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07163395435799397</v>
+      </c>
+      <c r="E77">
+        <v>0.1013650103082822</v>
+      </c>
+      <c r="F77">
+        <v>0.1779488429336259</v>
+      </c>
+      <c r="G77">
+        <v>-0.1254615069271335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04997379915519679</v>
+        <v>-0.04908991326346594</v>
       </c>
       <c r="C78">
-        <v>-0.03589493253162596</v>
+        <v>0.05126497332833894</v>
       </c>
       <c r="D78">
-        <v>-0.03681862383413712</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07019457638861973</v>
+      </c>
+      <c r="E78">
+        <v>0.0668171999801091</v>
+      </c>
+      <c r="F78">
+        <v>0.051212795047581</v>
+      </c>
+      <c r="G78">
+        <v>0.06320642038443089</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0002197177790698608</v>
+        <v>-0.03429729288168715</v>
       </c>
       <c r="C79">
-        <v>-0.0009472298901870105</v>
+        <v>0.04935640660062959</v>
       </c>
       <c r="D79">
-        <v>-0.003565230386934299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.08269271084028602</v>
+      </c>
+      <c r="E79">
+        <v>0.07153696722595598</v>
+      </c>
+      <c r="F79">
+        <v>-0.02837383676572017</v>
+      </c>
+      <c r="G79">
+        <v>0.03219629835892358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03918805506253362</v>
+        <v>-0.03057109687605561</v>
       </c>
       <c r="C80">
-        <v>-0.05260553158637025</v>
+        <v>0.05161964003276674</v>
       </c>
       <c r="D80">
-        <v>-0.0413281615707364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04651702867582673</v>
+      </c>
+      <c r="E80">
+        <v>0.01404979613583054</v>
+      </c>
+      <c r="F80">
+        <v>0.05152206605143737</v>
+      </c>
+      <c r="G80">
+        <v>-0.005325349411540575</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1439642392063006</v>
+        <v>-0.1422831769823001</v>
       </c>
       <c r="C81">
-        <v>-0.07117047376357703</v>
+        <v>0.09057468181692159</v>
       </c>
       <c r="D81">
-        <v>0.116401180894975</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1200950658994223</v>
+      </c>
+      <c r="E81">
+        <v>0.06888313937481803</v>
+      </c>
+      <c r="F81">
+        <v>-0.02175205669592326</v>
+      </c>
+      <c r="G81">
+        <v>-0.01627735532194236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2035596903517142</v>
+        <v>-0.2325962654751868</v>
       </c>
       <c r="C82">
-        <v>-0.09003973754424097</v>
+        <v>0.1549313138276419</v>
       </c>
       <c r="D82">
-        <v>0.2037606227398382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2482666684761491</v>
+      </c>
+      <c r="E82">
+        <v>-0.03558441892463086</v>
+      </c>
+      <c r="F82">
+        <v>0.04021016401273213</v>
+      </c>
+      <c r="G82">
+        <v>0.0752308003627411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04463185411864643</v>
+        <v>-0.03010469831868568</v>
       </c>
       <c r="C83">
-        <v>-0.03063127123226652</v>
+        <v>0.04487720027762732</v>
       </c>
       <c r="D83">
-        <v>-0.04132993187268198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03416213709709962</v>
+      </c>
+      <c r="E83">
+        <v>0.02578009474646289</v>
+      </c>
+      <c r="F83">
+        <v>0.02296608065713618</v>
+      </c>
+      <c r="G83">
+        <v>-0.005502532157431385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001098370041139878</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0006165810984544548</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0007107351630309267</v>
+      </c>
+      <c r="E84">
+        <v>0.003205586172252556</v>
+      </c>
+      <c r="F84">
+        <v>-0.001543039249293284</v>
+      </c>
+      <c r="G84">
+        <v>0.0001704373320547293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2206187909859055</v>
+        <v>-0.2032326209626858</v>
       </c>
       <c r="C85">
-        <v>-0.09228790309212878</v>
+        <v>0.109759831913186</v>
       </c>
       <c r="D85">
-        <v>0.1646711157914502</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1294380366066706</v>
+      </c>
+      <c r="E85">
+        <v>-0.008075227827229348</v>
+      </c>
+      <c r="F85">
+        <v>-0.1028547403718261</v>
+      </c>
+      <c r="G85">
+        <v>0.008696175504302408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01082704524445942</v>
+        <v>-0.01445747707656188</v>
       </c>
       <c r="C86">
-        <v>-0.02957059232060305</v>
+        <v>0.01855649410555565</v>
       </c>
       <c r="D86">
-        <v>-0.04347792030298481</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06869154021849223</v>
+      </c>
+      <c r="E86">
+        <v>0.08251588219796603</v>
+      </c>
+      <c r="F86">
+        <v>0.0764207737071335</v>
+      </c>
+      <c r="G86">
+        <v>0.07237583024077876</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02980600733884016</v>
+        <v>-0.02994775575943398</v>
       </c>
       <c r="C87">
-        <v>-0.001998976972092658</v>
+        <v>0.01303029680692461</v>
       </c>
       <c r="D87">
-        <v>-0.0806905357348147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09238412887510448</v>
+      </c>
+      <c r="E87">
+        <v>0.1285331758590921</v>
+      </c>
+      <c r="F87">
+        <v>0.07084615417113702</v>
+      </c>
+      <c r="G87">
+        <v>-0.007883660577302474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1106449278473757</v>
+        <v>-0.09403279626692131</v>
       </c>
       <c r="C88">
-        <v>-0.08295456083547277</v>
+        <v>0.0668942804601277</v>
       </c>
       <c r="D88">
-        <v>0.01450862664246281</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01631226573064259</v>
+      </c>
+      <c r="E88">
+        <v>0.05408662739533221</v>
+      </c>
+      <c r="F88">
+        <v>0.04068433793559376</v>
+      </c>
+      <c r="G88">
+        <v>0.02910086497510745</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1747916638002394</v>
+        <v>-0.2125618334664234</v>
       </c>
       <c r="C89">
-        <v>0.3804435150500727</v>
+        <v>-0.3841441963386639</v>
       </c>
       <c r="D89">
-        <v>0.02960923188838355</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01333898682598569</v>
+      </c>
+      <c r="E89">
+        <v>0.07758605723237046</v>
+      </c>
+      <c r="F89">
+        <v>0.08532479798320994</v>
+      </c>
+      <c r="G89">
+        <v>-0.004070291027372919</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1687794023245691</v>
+        <v>-0.1939640521097795</v>
       </c>
       <c r="C90">
-        <v>0.3348187322646665</v>
+        <v>-0.3110866523658014</v>
       </c>
       <c r="D90">
-        <v>0.03929992841095135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01601622133256573</v>
+      </c>
+      <c r="E90">
+        <v>0.05844247935996692</v>
+      </c>
+      <c r="F90">
+        <v>0.02688622113260582</v>
+      </c>
+      <c r="G90">
+        <v>0.01721366065597487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1903524871780344</v>
+        <v>-0.1874513058656226</v>
       </c>
       <c r="C91">
-        <v>-0.1227970983746745</v>
+        <v>0.1394579283522628</v>
       </c>
       <c r="D91">
-        <v>0.1338988927430777</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1264462007233171</v>
+      </c>
+      <c r="E91">
+        <v>0.05014254660343097</v>
+      </c>
+      <c r="F91">
+        <v>-0.0108468830968657</v>
+      </c>
+      <c r="G91">
+        <v>-0.006893843772890511</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1597394759281641</v>
+        <v>-0.1788796768344991</v>
       </c>
       <c r="C92">
-        <v>0.296593541316837</v>
+        <v>-0.2992649601282711</v>
       </c>
       <c r="D92">
-        <v>0.02174198484903823</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01074804902738973</v>
+      </c>
+      <c r="E92">
+        <v>0.06786138420056888</v>
+      </c>
+      <c r="F92">
+        <v>0.04879089660753947</v>
+      </c>
+      <c r="G92">
+        <v>0.02324324756960199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1878439853491268</v>
+        <v>-0.2133918801198145</v>
       </c>
       <c r="C93">
-        <v>0.3376126944068912</v>
+        <v>-0.3208269233890594</v>
       </c>
       <c r="D93">
-        <v>0.04592347709488868</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01857129963716174</v>
+      </c>
+      <c r="E93">
+        <v>0.04484149132841223</v>
+      </c>
+      <c r="F93">
+        <v>-0.001651085616906102</v>
+      </c>
+      <c r="G93">
+        <v>0.03621036521202967</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3508193272573978</v>
+        <v>-0.347393717345116</v>
       </c>
       <c r="C94">
-        <v>-0.1321005821548583</v>
+        <v>0.1755099215433027</v>
       </c>
       <c r="D94">
-        <v>0.4108447658527849</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4071407684168941</v>
+      </c>
+      <c r="E94">
+        <v>-0.005677615524934942</v>
+      </c>
+      <c r="F94">
+        <v>-0.1139457612351641</v>
+      </c>
+      <c r="G94">
+        <v>-0.4256912803724523</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1241486972793297</v>
+        <v>-0.09030239272628418</v>
       </c>
       <c r="C95">
-        <v>-0.04718895625243481</v>
+        <v>0.05433314355823651</v>
       </c>
       <c r="D95">
-        <v>-0.2215823596035147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1947928658855722</v>
+      </c>
+      <c r="E95">
+        <v>-0.1530409227407387</v>
+      </c>
+      <c r="F95">
+        <v>0.7475016234799795</v>
+      </c>
+      <c r="G95">
+        <v>-0.5030096025750783</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1892192485794649</v>
+        <v>-0.1854966968700617</v>
       </c>
       <c r="C98">
-        <v>-0.02962197670516672</v>
+        <v>0.04861629088003643</v>
       </c>
       <c r="D98">
-        <v>-0.1830066664194483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1985592394622817</v>
+      </c>
+      <c r="E98">
+        <v>-0.1505944024658283</v>
+      </c>
+      <c r="F98">
+        <v>-0.08904114174297607</v>
+      </c>
+      <c r="G98">
+        <v>0.07615583481598176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00847563353087347</v>
+        <v>-0.008013388285705683</v>
       </c>
       <c r="C101">
-        <v>-0.03225020897280492</v>
+        <v>0.02810731352148002</v>
       </c>
       <c r="D101">
-        <v>0.006492861651766122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02305816278687202</v>
+      </c>
+      <c r="E101">
+        <v>0.06452839031245274</v>
+      </c>
+      <c r="F101">
+        <v>0.05930359713663371</v>
+      </c>
+      <c r="G101">
+        <v>0.08118563290940314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1211479660640109</v>
+        <v>-0.1254260291156477</v>
       </c>
       <c r="C102">
-        <v>-0.06344349270928944</v>
+        <v>0.09610974187114134</v>
       </c>
       <c r="D102">
-        <v>0.04908473613797958</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06040134039479005</v>
+      </c>
+      <c r="E102">
+        <v>-0.01303518796983288</v>
+      </c>
+      <c r="F102">
+        <v>0.02272196344917291</v>
+      </c>
+      <c r="G102">
+        <v>-0.002441055345826627</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
